--- a/data_excel/349.xlsx
+++ b/data_excel/349.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>舊館國小</t>
   </si>
@@ -138,7 +138,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=</t>
+    <t>特點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +516,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -614,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -691,7 +695,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
